--- a/Technical Design Document & Project Documents/Code_Artifacts.xlsx
+++ b/Technical Design Document & Project Documents/Code_Artifacts.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsrikako\Desktop\COBOL Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsrikako\Desktop\COBOL Project\OCT1001\Final.zip\GiHub Uploaded Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4190"/>
   </bookViews>
   <sheets>
-    <sheet name="Project Artifacts" sheetId="1" r:id="rId1"/>
+    <sheet name="Code Artifacts" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
   <si>
     <t>Copy Books</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>FRANKAR.LEARN.FINAL.GPART.SUPP.FILE</t>
+  </si>
+  <si>
+    <t>RPT OUTPUT</t>
   </si>
 </sst>
 </file>
@@ -565,7 +568,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -867,7 +870,9 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D26" s="2" t="s">
         <v>36</v>
       </c>
@@ -875,7 +880,9 @@
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="D27" s="2" t="s">
         <v>37</v>
       </c>
@@ -883,7 +890,9 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D28" s="2" t="s">
         <v>38</v>
       </c>
@@ -891,7 +900,9 @@
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="D29" s="2" t="s">
         <v>39</v>
       </c>
@@ -899,7 +910,9 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="D30" s="2" t="s">
         <v>40</v>
       </c>
@@ -927,7 +940,9 @@
       <c r="B33" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="D33" s="2" t="s">
         <v>41</v>
       </c>
